--- a/characterization/trending_words/trending_keywords_year_month.xlsx
+++ b/characterization/trending_words/trending_keywords_year_month.xlsx
@@ -7,16 +7,1877 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2011" sheetId="1" r:id="rId1"/>
+    <sheet name="2012" sheetId="2" r:id="rId2"/>
+    <sheet name="2013" sheetId="3" r:id="rId3"/>
+    <sheet name="2014" sheetId="4" r:id="rId4"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="614">
+  <si>
+    <t>(u'letter', 3)</t>
+  </si>
+  <si>
+    <t>(u'bill', 2)</t>
+  </si>
+  <si>
+    <t>(u'car', 6)</t>
+  </si>
+  <si>
+    <t>(u'coca', 4)</t>
+  </si>
+  <si>
+    <t>(u'origin', 6)</t>
+  </si>
+  <si>
+    <t>(u'initiation', 9)</t>
+  </si>
+  <si>
+    <t>(u'dog', 5)</t>
+  </si>
+  <si>
+    <t>(u'facebook', 3)</t>
+  </si>
+  <si>
+    <t>(u'shops', 1)</t>
+  </si>
+  <si>
+    <t>(u'rooney', 5)</t>
+  </si>
+  <si>
+    <t>(u'scam', 3)</t>
+  </si>
+  <si>
+    <t>(u'traffic', 2)</t>
+  </si>
+  <si>
+    <t>(u'man', 2)</t>
+  </si>
+  <si>
+    <t>(u'oil', 3)</t>
+  </si>
+  <si>
+    <t>(u'gas', 3)</t>
+  </si>
+  <si>
+    <t>(u'origin', 4)</t>
+  </si>
+  <si>
+    <t>(u'exam', 6)</t>
+  </si>
+  <si>
+    <t>(u'gang', 9)</t>
+  </si>
+  <si>
+    <t>(u'cat', 5)</t>
+  </si>
+  <si>
+    <t>(u'button', 1)</t>
+  </si>
+  <si>
+    <t>(u'ban', 1)</t>
+  </si>
+  <si>
+    <t>(u'prayer', 2)</t>
+  </si>
+  <si>
+    <t>(u'card', 2)</t>
+  </si>
+  <si>
+    <t>(u'pay', 2)</t>
+  </si>
+  <si>
+    <t>(u'senator', 1)</t>
+  </si>
+  <si>
+    <t>(u'prices', 3)</t>
+  </si>
+  <si>
+    <t>(u'kkk', 3)</t>
+  </si>
+  <si>
+    <t>(u'bin', 4)</t>
+  </si>
+  <si>
+    <t>(u'name', 5)</t>
+  </si>
+  <si>
+    <t>(u'scam', 8)</t>
+  </si>
+  <si>
+    <t>(u'book', 3)</t>
+  </si>
+  <si>
+    <t>(u'hackett', 1)</t>
+  </si>
+  <si>
+    <t>(u'superstitions', 1)</t>
+  </si>
+  <si>
+    <t>(u'sowell', 2)</t>
+  </si>
+  <si>
+    <t>(u'violation', 1)</t>
+  </si>
+  <si>
+    <t>(u'laws', 1)</t>
+  </si>
+  <si>
+    <t>(u'error', 1)</t>
+  </si>
+  <si>
+    <t>(u'president', 2)</t>
+  </si>
+  <si>
+    <t>(u'cola', 4)</t>
+  </si>
+  <si>
+    <t>(u'coca', 3)</t>
+  </si>
+  <si>
+    <t>(u'pet', 3)</t>
+  </si>
+  <si>
+    <t>(u'security', 1)</t>
+  </si>
+  <si>
+    <t>(u'macbooks', 1)</t>
+  </si>
+  <si>
+    <t>(u'thomas', 2)</t>
+  </si>
+  <si>
+    <t>(u'physics', 1)</t>
+  </si>
+  <si>
+    <t>(u'meal', 1)</t>
+  </si>
+  <si>
+    <t>(u'coca', 1)</t>
+  </si>
+  <si>
+    <t>(u'honey', 2)</t>
+  </si>
+  <si>
+    <t>(u'letter', 2)</t>
+  </si>
+  <si>
+    <t>(u'tax', 3)</t>
+  </si>
+  <si>
+    <t>(u'college', 3)</t>
+  </si>
+  <si>
+    <t>(u'rape', 5)</t>
+  </si>
+  <si>
+    <t>(u'foods', 2)</t>
+  </si>
+  <si>
+    <t>(u'laus', 1)</t>
+  </si>
+  <si>
+    <t>(u'cyclops', 1)</t>
+  </si>
+  <si>
+    <t>(u'gibson', 1)</t>
+  </si>
+  <si>
+    <t>(u'facebook', 1)</t>
+  </si>
+  <si>
+    <t>(u'accidents', 1)</t>
+  </si>
+  <si>
+    <t>(u'airport', 1)</t>
+  </si>
+  <si>
+    <t>(u'george', 2)</t>
+  </si>
+  <si>
+    <t>(u'rumors', 2)</t>
+  </si>
+  <si>
+    <t>(u'bill', 3)</t>
+  </si>
+  <si>
+    <t>(u'answer', 3)</t>
+  </si>
+  <si>
+    <t>(u'phone', 4)</t>
+  </si>
+  <si>
+    <t>(u'shark', 2)</t>
+  </si>
+  <si>
+    <t>(u'banks', 1)</t>
+  </si>
+  <si>
+    <t>(u'cob', 1)</t>
+  </si>
+  <si>
+    <t>(u'ignition', 1)</t>
+  </si>
+  <si>
+    <t>(u'mother', 1)</t>
+  </si>
+  <si>
+    <t>(u'cards', 1)</t>
+  </si>
+  <si>
+    <t>(u'garage', 1)</t>
+  </si>
+  <si>
+    <t>(u'washington', 2)</t>
+  </si>
+  <si>
+    <t>(u'pepsi', 3)</t>
+  </si>
+  <si>
+    <t>(u'death', 3)</t>
+  </si>
+  <si>
+    <t>(u'cell', 4)</t>
+  </si>
+  <si>
+    <t>(u'rabbit', 2)</t>
+  </si>
+  <si>
+    <t>(u'cat', 1)</t>
+  </si>
+  <si>
+    <t>(u'defense', 1)</t>
+  </si>
+  <si>
+    <t>(u'teachers', 1)</t>
+  </si>
+  <si>
+    <t>(u'fines', 1)</t>
+  </si>
+  <si>
+    <t>(u'gun', 1)</t>
+  </si>
+  <si>
+    <t>(u'jews', 2)</t>
+  </si>
+  <si>
+    <t>(u'control', 2)</t>
+  </si>
+  <si>
+    <t>(u'cola', 3)</t>
+  </si>
+  <si>
+    <t>(u'attempt', 3)</t>
+  </si>
+  <si>
+    <t>(u'puppies', 2)</t>
+  </si>
+  <si>
+    <t>(u'monument', 1)</t>
+  </si>
+  <si>
+    <t>(u'budget', 1)</t>
+  </si>
+  <si>
+    <t>(u'formation', 1)</t>
+  </si>
+  <si>
+    <t>(u'restock', 1)</t>
+  </si>
+  <si>
+    <t>(u'homes', 1)</t>
+  </si>
+  <si>
+    <t>(u'death', 2)</t>
+  </si>
+  <si>
+    <t>(u'obama', 2)</t>
+  </si>
+  <si>
+    <t>(u'baby', 2)</t>
+  </si>
+  <si>
+    <t>(u'professor', 2)</t>
+  </si>
+  <si>
+    <t>(u'obama', 3)</t>
+  </si>
+  <si>
+    <t>(u'pets', 2)</t>
+  </si>
+  <si>
+    <t>(u'lobsters', 1)</t>
+  </si>
+  <si>
+    <t>(u'cooler', 1)</t>
+  </si>
+  <si>
+    <t>(u'disease', 1)</t>
+  </si>
+  <si>
+    <t>(u'mistranslation', 1)</t>
+  </si>
+  <si>
+    <t>(u'tablecloth', 1)</t>
+  </si>
+  <si>
+    <t>(u'herman', 1)</t>
+  </si>
+  <si>
+    <t>(u'japan', 2)</t>
+  </si>
+  <si>
+    <t>(u'accident', 2)</t>
+  </si>
+  <si>
+    <t>(u'strike', 2)</t>
+  </si>
+  <si>
+    <t>(u'book', 2)</t>
+  </si>
+  <si>
+    <t>(u'scams', 3)</t>
+  </si>
+  <si>
+    <t>(u'rescue', 2)</t>
+  </si>
+  <si>
+    <t>(u'gin', 1)</t>
+  </si>
+  <si>
+    <t>(u'man', 1)</t>
+  </si>
+  <si>
+    <t>(u'request', 1)</t>
+  </si>
+  <si>
+    <t>(u'teams', 1)</t>
+  </si>
+  <si>
+    <t>(u'baby', 3)</t>
+  </si>
+  <si>
+    <t>(u'pit', 3)</t>
+  </si>
+  <si>
+    <t>(u'romney', 3)</t>
+  </si>
+  <si>
+    <t>(u'virus', 2)</t>
+  </si>
+  <si>
+    <t>(u'obama', 6)</t>
+  </si>
+  <si>
+    <t>(u'obama', 4)</t>
+  </si>
+  <si>
+    <t>(u'romney', 4)</t>
+  </si>
+  <si>
+    <t>(u'santa', 2)</t>
+  </si>
+  <si>
+    <t>(u'sign', 2)</t>
+  </si>
+  <si>
+    <t>(u'fact', 1)</t>
+  </si>
+  <si>
+    <t>(u'tornado', 2)</t>
+  </si>
+  <si>
+    <t>(u'child', 3)</t>
+  </si>
+  <si>
+    <t>(u'facebook', 2)</t>
+  </si>
+  <si>
+    <t>(u'jefferson', 2)</t>
+  </si>
+  <si>
+    <t>(u'romney', 2)</t>
+  </si>
+  <si>
+    <t>(u'flag', 2)</t>
+  </si>
+  <si>
+    <t>(u'dog', 1)</t>
+  </si>
+  <si>
+    <t>(u'bull', 2)</t>
+  </si>
+  <si>
+    <t>(u'mitt', 3)</t>
+  </si>
+  <si>
+    <t>(u'migration', 1)</t>
+  </si>
+  <si>
+    <t>(u'cat', 2)</t>
+  </si>
+  <si>
+    <t>(u'bieber', 1)</t>
+  </si>
+  <si>
+    <t>(u'states', 2)</t>
+  </si>
+  <si>
+    <t>(u'hook', 2)</t>
+  </si>
+  <si>
+    <t>(u'petition', 2)</t>
+  </si>
+  <si>
+    <t>(u'santorum', 1)</t>
+  </si>
+  <si>
+    <t>(u'lines', 2)</t>
+  </si>
+  <si>
+    <t>(u'horse', 2)</t>
+  </si>
+  <si>
+    <t>(u'traffic', 1)</t>
+  </si>
+  <si>
+    <t>(u'child', 2)</t>
+  </si>
+  <si>
+    <t>(u'bills', 1)</t>
+  </si>
+  <si>
+    <t>(u'biden', 2)</t>
+  </si>
+  <si>
+    <t>(u'car', 2)</t>
+  </si>
+  <si>
+    <t>(u'view', 1)</t>
+  </si>
+  <si>
+    <t>(u'wolves', 1)</t>
+  </si>
+  <si>
+    <t>(u'failure', 1)</t>
+  </si>
+  <si>
+    <t>(u'gift', 2)</t>
+  </si>
+  <si>
+    <t>(u'air', 2)</t>
+  </si>
+  <si>
+    <t>(u'etymology', 2)</t>
+  </si>
+  <si>
+    <t>(u'time', 1)</t>
+  </si>
+  <si>
+    <t>(u'china', 2)</t>
+  </si>
+  <si>
+    <t>(u'guy', 1)</t>
+  </si>
+  <si>
+    <t>(u'america', 2)</t>
+  </si>
+  <si>
+    <t>(u'advertisement', 2)</t>
+  </si>
+  <si>
+    <t>(u'switzerland', 1)</t>
+  </si>
+  <si>
+    <t>(u'student', 1)</t>
+  </si>
+  <si>
+    <t>(u'commencement', 1)</t>
+  </si>
+  <si>
+    <t>(u'laughing', 1)</t>
+  </si>
+  <si>
+    <t>(u'home', 2)</t>
+  </si>
+  <si>
+    <t>(u'chick', 1)</t>
+  </si>
+  <si>
+    <t>(u'cola', 2)</t>
+  </si>
+  <si>
+    <t>(u'initiation', 2)</t>
+  </si>
+  <si>
+    <t>(u'absentee', 2)</t>
+  </si>
+  <si>
+    <t>(u'donations', 1)</t>
+  </si>
+  <si>
+    <t>(u'face', 1)</t>
+  </si>
+  <si>
+    <t>(u'permit', 1)</t>
+  </si>
+  <si>
+    <t>(u'teeth', 1)</t>
+  </si>
+  <si>
+    <t>(u'mass', 1)</t>
+  </si>
+  <si>
+    <t>(u'obamacare', 2)</t>
+  </si>
+  <si>
+    <t>(u'pyramids', 1)</t>
+  </si>
+  <si>
+    <t>(u'voting', 1)</t>
+  </si>
+  <si>
+    <t>(u'vote', 2)</t>
+  </si>
+  <si>
+    <t>(u'mitt', 2)</t>
+  </si>
+  <si>
+    <t>(u'morris', 1)</t>
+  </si>
+  <si>
+    <t>(u'youtube', 1)</t>
+  </si>
+  <si>
+    <t>(u'attend', 1)</t>
+  </si>
+  <si>
+    <t>(u'appeal', 2)</t>
+  </si>
+  <si>
+    <t>(u'nancy', 1)</t>
+  </si>
+  <si>
+    <t>(u'levitating', 1)</t>
+  </si>
+  <si>
+    <t>(u'day', 2)</t>
+  </si>
+  <si>
+    <t>(u'potato', 1)</t>
+  </si>
+  <si>
+    <t>(u'columbia', 1)</t>
+  </si>
+  <si>
+    <t>(u'glass', 1)</t>
+  </si>
+  <si>
+    <t>(u'flag', 1)</t>
+  </si>
+  <si>
+    <t>(u'kneel', 1)</t>
+  </si>
+  <si>
+    <t>(u'dream', 1)</t>
+  </si>
+  <si>
+    <t>(u'dallas', 1)</t>
+  </si>
+  <si>
+    <t>(u'barack', 2)</t>
+  </si>
+  <si>
+    <t>(u'ballots', 2)</t>
+  </si>
+  <si>
+    <t>(u'bill', 1)</t>
+  </si>
+  <si>
+    <t>(u'hummingbird', 1)</t>
+  </si>
+  <si>
+    <t>(u'oil', 1)</t>
+  </si>
+  <si>
+    <t>(u'euthanasia', 1)</t>
+  </si>
+  <si>
+    <t>(u'charlie', 1)</t>
+  </si>
+  <si>
+    <t>(u'graduation', 1)</t>
+  </si>
+  <si>
+    <t>(u'ambulance', 1)</t>
+  </si>
+  <si>
+    <t>(u'vietnam', 1)</t>
+  </si>
+  <si>
+    <t>(u'gang', 2)</t>
+  </si>
+  <si>
+    <t>(u'light', 1)</t>
+  </si>
+  <si>
+    <t>(u'gun', 4)</t>
+  </si>
+  <si>
+    <t>(u'food', 2)</t>
+  </si>
+  <si>
+    <t>(u'gas', 2)</t>
+  </si>
+  <si>
+    <t>(u'petition', 17)</t>
+  </si>
+  <si>
+    <t>(u'hoax', 3)</t>
+  </si>
+  <si>
+    <t>(u'president', 3)</t>
+  </si>
+  <si>
+    <t>(u'virus', 45)</t>
+  </si>
+  <si>
+    <t>(u'christmas', 7)</t>
+  </si>
+  <si>
+    <t>(u'house', 2)</t>
+  </si>
+  <si>
+    <t>(u'pope', 2)</t>
+  </si>
+  <si>
+    <t>(u'prayer', 15)</t>
+  </si>
+  <si>
+    <t>(u'martin', 3)</t>
+  </si>
+  <si>
+    <t>(u'job', 2)</t>
+  </si>
+  <si>
+    <t>(u'dress', 2)</t>
+  </si>
+  <si>
+    <t>(u'scam', 2)</t>
+  </si>
+  <si>
+    <t>(u'deaths', 2)</t>
+  </si>
+  <si>
+    <t>(u'walter', 1)</t>
+  </si>
+  <si>
+    <t>(u'request', 13)</t>
+  </si>
+  <si>
+    <t>(u'origins', 2)</t>
+  </si>
+  <si>
+    <t>(u'tax', 2)</t>
+  </si>
+  <si>
+    <t>(u'dog', 2)</t>
+  </si>
+  <si>
+    <t>(u'rescues', 1)</t>
+  </si>
+  <si>
+    <t>(u'war', 3)</t>
+  </si>
+  <si>
+    <t>(u'shutdown', 3)</t>
+  </si>
+  <si>
+    <t>(u'year', 2)</t>
+  </si>
+  <si>
+    <t>(u'marvin', 1)</t>
+  </si>
+  <si>
+    <t>(u'child', 8)</t>
+  </si>
+  <si>
+    <t>(u'prize', 2)</t>
+  </si>
+  <si>
+    <t>(u'zimmerman', 2)</t>
+  </si>
+  <si>
+    <t>(u'arizona', 1)</t>
+  </si>
+  <si>
+    <t>(u'sober', 3)</t>
+  </si>
+  <si>
+    <t>(u'tree', 2)</t>
+  </si>
+  <si>
+    <t>(u'law', 2)</t>
+  </si>
+  <si>
+    <t>(u'baseball', 1)</t>
+  </si>
+  <si>
+    <t>(u'imani', 1)</t>
+  </si>
+  <si>
+    <t>(u'coupon', 6)</t>
+  </si>
+  <si>
+    <t>(u'suicide', 2)</t>
+  </si>
+  <si>
+    <t>(u'son', 2)</t>
+  </si>
+  <si>
+    <t>(u'paula', 2)</t>
+  </si>
+  <si>
+    <t>(u'hitchhikers', 1)</t>
+  </si>
+  <si>
+    <t>(u'klez', 3)</t>
+  </si>
+  <si>
+    <t>(u'merry', 2)</t>
+  </si>
+  <si>
+    <t>(u'media', 1)</t>
+  </si>
+  <si>
+    <t>(u'action', 1)</t>
+  </si>
+  <si>
+    <t>(u'day', 5)</t>
+  </si>
+  <si>
+    <t>(u'lynch', 1)</t>
+  </si>
+  <si>
+    <t>(u'clothes', 2)</t>
+  </si>
+  <si>
+    <t>(u'deen', 2)</t>
+  </si>
+  <si>
+    <t>(u'sodas', 1)</t>
+  </si>
+  <si>
+    <t>(u'veterans', 2)</t>
+  </si>
+  <si>
+    <t>(u'sex', 3)</t>
+  </si>
+  <si>
+    <t>(u'school', 2)</t>
+  </si>
+  <si>
+    <t>(u'tale', 1)</t>
+  </si>
+  <si>
+    <t>(u'act', 1)</t>
+  </si>
+  <si>
+    <t>(u'receives', 1)</t>
+  </si>
+  <si>
+    <t>(u'hoax', 5)</t>
+  </si>
+  <si>
+    <t>(u'eisenberg', 1)</t>
+  </si>
+  <si>
+    <t>(u'rumor', 2)</t>
+  </si>
+  <si>
+    <t>(u'lights', 2)</t>
+  </si>
+  <si>
+    <t>(u'expressionless', 1)</t>
+  </si>
+  <si>
+    <t>(u'chicken', 1)</t>
+  </si>
+  <si>
+    <t>(u'april', 1)</t>
+  </si>
+  <si>
+    <t>(u'appeal', 5)</t>
+  </si>
+  <si>
+    <t>(u'children', 2)</t>
+  </si>
+  <si>
+    <t>(u'trayvon', 2)</t>
+  </si>
+  <si>
+    <t>(u'simpson', 1)</t>
+  </si>
+  <si>
+    <t>(u'government', 3)</t>
+  </si>
+  <si>
+    <t>(u'game', 2)</t>
+  </si>
+  <si>
+    <t>(u'michael', 2)</t>
+  </si>
+  <si>
+    <t>(u'brady', 1)</t>
+  </si>
+  <si>
+    <t>(u'dick', 1)</t>
+  </si>
+  <si>
+    <t>(u'boston', 5)</t>
+  </si>
+  <si>
+    <t>(u'order', 1)</t>
+  </si>
+  <si>
+    <t>(u'music', 2)</t>
+  </si>
+  <si>
+    <t>(u'rules', 1)</t>
+  </si>
+  <si>
+    <t>(u'bugs', 1)</t>
+  </si>
+  <si>
+    <t>(u'theater', 1)</t>
+  </si>
+  <si>
+    <t>(u'christmas', 1)</t>
+  </si>
+  <si>
+    <t>(u'gaye', 1)</t>
+  </si>
+  <si>
+    <t>(u'christmas', 4)</t>
+  </si>
+  <si>
+    <t>(u'truck', 1)</t>
+  </si>
+  <si>
+    <t>(u'identity', 1)</t>
+  </si>
+  <si>
+    <t>(u'phil', 1)</t>
+  </si>
+  <si>
+    <t>(u'exe', 2)</t>
+  </si>
+  <si>
+    <t>(u'goodbye', 1)</t>
+  </si>
+  <si>
+    <t>(u'bush', 2)</t>
+  </si>
+  <si>
+    <t>(u'scam', 5)</t>
+  </si>
+  <si>
+    <t>(u'malaysia', 3)</t>
+  </si>
+  <si>
+    <t>(u'bush', 3)</t>
+  </si>
+  <si>
+    <t>(u'death', 4)</t>
+  </si>
+  <si>
+    <t>(u'isis', 4)</t>
+  </si>
+  <si>
+    <t>(u'ebola', 12)</t>
+  </si>
+  <si>
+    <t>(u'obama', 7)</t>
+  </si>
+  <si>
+    <t>(u'life', 4)</t>
+  </si>
+  <si>
+    <t>(u'eggs', 2)</t>
+  </si>
+  <si>
+    <t>(u'johnson', 2)</t>
+  </si>
+  <si>
+    <t>(u'show', 3)</t>
+  </si>
+  <si>
+    <t>(u'rainbow', 2)</t>
+  </si>
+  <si>
+    <t>(u'moon', 3)</t>
+  </si>
+  <si>
+    <t>(u'bucket', 3)</t>
+  </si>
+  <si>
+    <t>(u'michelle', 3)</t>
+  </si>
+  <si>
+    <t>(u'man', 4)</t>
+  </si>
+  <si>
+    <t>(u'warning', 5)</t>
+  </si>
+  <si>
+    <t>(u'darren', 3)</t>
+  </si>
+  <si>
+    <t>(u'chip', 2)</t>
+  </si>
+  <si>
+    <t>(u'names', 1)</t>
+  </si>
+  <si>
+    <t>(u'skinner', 2)</t>
+  </si>
+  <si>
+    <t>(u'ball', 2)</t>
+  </si>
+  <si>
+    <t>(u'statue', 2)</t>
+  </si>
+  <si>
+    <t>(u'state', 3)</t>
+  </si>
+  <si>
+    <t>(u'challenge', 3)</t>
+  </si>
+  <si>
+    <t>(u'terrorist', 3)</t>
+  </si>
+  <si>
+    <t>(u'card', 3)</t>
+  </si>
+  <si>
+    <t>(u'women', 2)</t>
+  </si>
+  <si>
+    <t>(u'griffin', 1)</t>
+  </si>
+  <si>
+    <t>(u'beaver', 2)</t>
+  </si>
+  <si>
+    <t>(u'pink', 2)</t>
+  </si>
+  <si>
+    <t>(u'palin', 2)</t>
+  </si>
+  <si>
+    <t>(u'war', 2)</t>
+  </si>
+  <si>
+    <t>(u'mother', 2)</t>
+  </si>
+  <si>
+    <t>(u'ice', 3)</t>
+  </si>
+  <si>
+    <t>(u'change', 3)</t>
+  </si>
+  <si>
+    <t>(u'ebola', 4)</t>
+  </si>
+  <si>
+    <t>(u'cnn', 1)</t>
+  </si>
+  <si>
+    <t>(u'hoax', 2)</t>
+  </si>
+  <si>
+    <t>(u'monster', 2)</t>
+  </si>
+  <si>
+    <t>(u'phone', 2)</t>
+  </si>
+  <si>
+    <t>(u'phone', 3)</t>
+  </si>
+  <si>
+    <t>(u'house', 3)</t>
+  </si>
+  <si>
+    <t>(u'schools', 4)</t>
+  </si>
+  <si>
+    <t>(u'police', 3)</t>
+  </si>
+  <si>
+    <t>(u'jackson', 2)</t>
+  </si>
+  <si>
+    <t>(u'invitation', 1)</t>
+  </si>
+  <si>
+    <t>(u'bieber', 2)</t>
+  </si>
+  <si>
+    <t>(u'spider', 2)</t>
+  </si>
+  <si>
+    <t>(u'purge', 2)</t>
+  </si>
+  <si>
+    <t>(u'bans', 3)</t>
+  </si>
+  <si>
+    <t>(u'dog', 3)</t>
+  </si>
+  <si>
+    <t>(u'pockets', 1)</t>
+  </si>
+  <si>
+    <t>(u'airlines', 2)</t>
+  </si>
+  <si>
+    <t>(u'justin', 2)</t>
+  </si>
+  <si>
+    <t>(u'people', 2)</t>
+  </si>
+  <si>
+    <t>(u'murder', 2)</t>
+  </si>
+  <si>
+    <t>(u'photo', 3)</t>
+  </si>
+  <si>
+    <t>(u'time', 2)</t>
+  </si>
+  <si>
+    <t>(u'person', 1)</t>
+  </si>
+  <si>
+    <t>(u'campaign', 2)</t>
+  </si>
+  <si>
+    <t>(u'volkswagen', 2)</t>
+  </si>
+  <si>
+    <t>(u'declaration', 2)</t>
+  </si>
+  <si>
+    <t>(u'center', 2)</t>
+  </si>
+  <si>
+    <t>(u'meat', 3)</t>
+  </si>
+  <si>
+    <t>(u'media', 2)</t>
+  </si>
+  <si>
+    <t>(u'shot', 2)</t>
+  </si>
+  <si>
+    <t>(u'ringer', 1)</t>
+  </si>
+  <si>
+    <t>(u'tips', 2)</t>
+  </si>
+  <si>
+    <t>(u'wind', 1)</t>
+  </si>
+  <si>
+    <t>(u'water', 2)</t>
+  </si>
+  <si>
+    <t>(u'flight', 2)</t>
+  </si>
+  <si>
+    <t>(u'williams', 2)</t>
+  </si>
+  <si>
+    <t>(u'hand', 2)</t>
+  </si>
+  <si>
+    <t>(u'muslims', 2)</t>
+  </si>
+  <si>
+    <t>(u'ferguson', 3)</t>
+  </si>
+  <si>
+    <t>(u'age', 2)</t>
+  </si>
+  <si>
+    <t>(u'shrimp', 1)</t>
+  </si>
+  <si>
+    <t>(u'malaysia', 2)</t>
+  </si>
+  <si>
+    <t>(u'wedges', 1)</t>
+  </si>
+  <si>
+    <t>(u'world', 2)</t>
+  </si>
+  <si>
+    <t>(u'cell', 2)</t>
+  </si>
+  <si>
+    <t>(u'lie', 2)</t>
+  </si>
+  <si>
+    <t>(u'walmart', 2)</t>
+  </si>
+  <si>
+    <t>(u'muslims', 4)</t>
+  </si>
+  <si>
+    <t>(u'man', 6)</t>
+  </si>
+  <si>
+    <t>(u'obama', 9)</t>
+  </si>
+  <si>
+    <t>(u'baby', 5)</t>
+  </si>
+  <si>
+    <t>(u'obama', 5)</t>
+  </si>
+  <si>
+    <t>(u'mexico', 3)</t>
+  </si>
+  <si>
+    <t>(u'gun', 5)</t>
+  </si>
+  <si>
+    <t>(u'trump', 8)</t>
+  </si>
+  <si>
+    <t>(u'world', 3)</t>
+  </si>
+  <si>
+    <t>(u'cruz', 7)</t>
+  </si>
+  <si>
+    <t>(u'facebook', 5)</t>
+  </si>
+  <si>
+    <t>(u'man', 5)</t>
+  </si>
+  <si>
+    <t>(u'trump', 3)</t>
+  </si>
+  <si>
+    <t>(u'obama', 8)</t>
+  </si>
+  <si>
+    <t>(u'matter', 3)</t>
+  </si>
+  <si>
+    <t>(u'bowl', 4)</t>
+  </si>
+  <si>
+    <t>(u'president', 5)</t>
+  </si>
+  <si>
+    <t>(u'world', 4)</t>
+  </si>
+  <si>
+    <t>(u'rainbow', 3)</t>
+  </si>
+  <si>
+    <t>(u'bull', 3)</t>
+  </si>
+  <si>
+    <t>(u'warning', 3)</t>
+  </si>
+  <si>
+    <t>(u'rape', 2)</t>
+  </si>
+  <si>
+    <t>(u'shot', 3)</t>
+  </si>
+  <si>
+    <t>(u'president', 6)</t>
+  </si>
+  <si>
+    <t>(u'day', 3)</t>
+  </si>
+  <si>
+    <t>(u'burns', 3)</t>
+  </si>
+  <si>
+    <t>(u'coupon', 3)</t>
+  </si>
+  <si>
+    <t>(u'wave', 2)</t>
+  </si>
+  <si>
+    <t>(u'trafficking', 2)</t>
+  </si>
+  <si>
+    <t>(u'halloween', 2)</t>
+  </si>
+  <si>
+    <t>(u'sarah', 3)</t>
+  </si>
+  <si>
+    <t>(u'michelle', 4)</t>
+  </si>
+  <si>
+    <t>(u'prayer', 3)</t>
+  </si>
+  <si>
+    <t>(u'july', 3)</t>
+  </si>
+  <si>
+    <t>(u'shirt', 2)</t>
+  </si>
+  <si>
+    <t>(u'mountain', 2)</t>
+  </si>
+  <si>
+    <t>(u'trump', 2)</t>
+  </si>
+  <si>
+    <t>(u'troll', 2)</t>
+  </si>
+  <si>
+    <t>(u'palin', 3)</t>
+  </si>
+  <si>
+    <t>(u'measles', 3)</t>
+  </si>
+  <si>
+    <t>(u'food', 4)</t>
+  </si>
+  <si>
+    <t>(u'years', 3)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 3)</t>
+  </si>
+  <si>
+    <t>(u'lice', 2)</t>
+  </si>
+  <si>
+    <t>(u'refugee', 2)</t>
+  </si>
+  <si>
+    <t>(u'bunny', 2)</t>
+  </si>
+  <si>
+    <t>(u'school', 3)</t>
+  </si>
+  <si>
+    <t>(u'girl', 3)</t>
+  </si>
+  <si>
+    <t>(u'students', 3)</t>
+  </si>
+  <si>
+    <t>(u'paul', 3)</t>
+  </si>
+  <si>
+    <t>(u'man', 3)</t>
+  </si>
+  <si>
+    <t>(u'church', 2)</t>
+  </si>
+  <si>
+    <t>(u'woman', 3)</t>
+  </si>
+  <si>
+    <t>(u'body', 3)</t>
+  </si>
+  <si>
+    <t>(u'request', 3)</t>
+  </si>
+  <si>
+    <t>(u'cream', 2)</t>
+  </si>
+  <si>
+    <t>(u'magic', 2)</t>
+  </si>
+  <si>
+    <t>(u'record', 2)</t>
+  </si>
+  <si>
+    <t>(u'tick', 2)</t>
+  </si>
+  <si>
+    <t>(u'measles', 2)</t>
+  </si>
+  <si>
+    <t>(u'wall', 2)</t>
+  </si>
+  <si>
+    <t>(u'sinner', 1)</t>
+  </si>
+  <si>
+    <t>(u'way', 2)</t>
+  </si>
+  <si>
+    <t>(u'holiday', 3)</t>
+  </si>
+  <si>
+    <t>(u'cats', 2)</t>
+  </si>
+  <si>
+    <t>(u'classmate', 2)</t>
+  </si>
+  <si>
+    <t>(u'power', 2)</t>
+  </si>
+  <si>
+    <t>(u'days', 2)</t>
+  </si>
+  <si>
+    <t>(u'james', 2)</t>
+  </si>
+  <si>
+    <t>(u'dot', 1)</t>
+  </si>
+  <si>
+    <t>(u'doubt', 2)</t>
+  </si>
+  <si>
+    <t>(u'masturbation', 2)</t>
+  </si>
+  <si>
+    <t>(u'controversy', 3)</t>
+  </si>
+  <si>
+    <t>(u'trump', 13)</t>
+  </si>
+  <si>
+    <t>(u'trump', 16)</t>
+  </si>
+  <si>
+    <t>(u'trump', 24)</t>
+  </si>
+  <si>
+    <t>(u'bathroom', 8)</t>
+  </si>
+  <si>
+    <t>(u'trump', 17)</t>
+  </si>
+  <si>
+    <t>(u'trump', 12)</t>
+  </si>
+  <si>
+    <t>(u'trump', 28)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 33)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 50)</t>
+  </si>
+  <si>
+    <t>(u'trump', 56)</t>
+  </si>
+  <si>
+    <t>(u'trump', 36)</t>
+  </si>
+  <si>
+    <t>(u'bill', 7)</t>
+  </si>
+  <si>
+    <t>(u'bernie', 10)</t>
+  </si>
+  <si>
+    <t>(u'sanders', 14)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 7)</t>
+  </si>
+  <si>
+    <t>(u'sanders', 11)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 11)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 13)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 19)</t>
+  </si>
+  <si>
+    <t>(u'trump', 23)</t>
+  </si>
+  <si>
+    <t>(u'trump', 33)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 28)</t>
+  </si>
+  <si>
+    <t>(u'inauguration', 7)</t>
+  </si>
+  <si>
+    <t>(u'donald', 6)</t>
+  </si>
+  <si>
+    <t>(u'sanders', 9)</t>
+  </si>
+  <si>
+    <t>(u'bernie', 14)</t>
+  </si>
+  <si>
+    <t>(u'woman', 7)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 9)</t>
+  </si>
+  <si>
+    <t>(u'death', 6)</t>
+  </si>
+  <si>
+    <t>(u'obama', 10)</t>
+  </si>
+  <si>
+    <t>(u'school', 7)</t>
+  </si>
+  <si>
+    <t>(u'police', 10)</t>
+  </si>
+  <si>
+    <t>(u'bill', 8)</t>
+  </si>
+  <si>
+    <t>(u'election', 10)</t>
+  </si>
+  <si>
+    <t>(u'christmas', 6)</t>
+  </si>
+  <si>
+    <t>(u'powerball', 6)</t>
+  </si>
+  <si>
+    <t>(u'man', 7)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 6)</t>
+  </si>
+  <si>
+    <t>(u'transgender', 6)</t>
+  </si>
+  <si>
+    <t>(u'muslims', 5)</t>
+  </si>
+  <si>
+    <t>(u'pokemon', 7)</t>
+  </si>
+  <si>
+    <t>(u'debate', 7)</t>
+  </si>
+  <si>
+    <t>(u'wikileaks', 7)</t>
+  </si>
+  <si>
+    <t>(u'protesters', 7)</t>
+  </si>
+  <si>
+    <t>(u'muslim', 6)</t>
+  </si>
+  <si>
+    <t>(u'scam', 6)</t>
+  </si>
+  <si>
+    <t>(u'isn', 6)</t>
+  </si>
+  <si>
+    <t>(u'trump', 6)</t>
+  </si>
+  <si>
+    <t>(u'bernie', 7)</t>
+  </si>
+  <si>
+    <t>(u'orlando', 4)</t>
+  </si>
+  <si>
+    <t>(u'president', 7)</t>
+  </si>
+  <si>
+    <t>(u'media', 5)</t>
+  </si>
+  <si>
+    <t>(u'people', 6)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 4)</t>
+  </si>
+  <si>
+    <t>(u'shows', 5)</t>
+  </si>
+  <si>
+    <t>(u'donald', 5)</t>
+  </si>
+  <si>
+    <t>(u'prince', 5)</t>
+  </si>
+  <si>
+    <t>(u'death', 5)</t>
+  </si>
+  <si>
+    <t>(u'people', 5)</t>
+  </si>
+  <si>
+    <t>(u'woman', 6)</t>
+  </si>
+  <si>
+    <t>(u'john', 5)</t>
+  </si>
+  <si>
+    <t>(u'people', 4)</t>
+  </si>
+  <si>
+    <t>(u'didn', 5)</t>
+  </si>
+  <si>
+    <t>(u'sanders', 4)</t>
+  </si>
+  <si>
+    <t>(u'photograph', 6)</t>
+  </si>
+  <si>
+    <t>(u'california', 4)</t>
+  </si>
+  <si>
+    <t>(u'lives', 5)</t>
+  </si>
+  <si>
+    <t>(u'pence', 6)</t>
+  </si>
+  <si>
+    <t>(u'pipeline', 5)</t>
+  </si>
+  <si>
+    <t>(u'election', 4)</t>
+  </si>
+  <si>
+    <t>(u'hoax', 4)</t>
+  </si>
+  <si>
+    <t>(u'photo', 4)</t>
+  </si>
+  <si>
+    <t>(u'target', 4)</t>
+  </si>
+  <si>
+    <t>(u'president', 4)</t>
+  </si>
+  <si>
+    <t>(u'speech', 5)</t>
+  </si>
+  <si>
+    <t>(u'bans', 5)</t>
+  </si>
+  <si>
+    <t>(u'bill', 5)</t>
+  </si>
+  <si>
+    <t>(u'bill', 4)</t>
+  </si>
+  <si>
+    <t>(u'women', 4)</t>
+  </si>
+  <si>
+    <t>(u'cruz', 4)</t>
+  </si>
+  <si>
+    <t>(u'didn', 4)</t>
+  </si>
+  <si>
+    <t>(u'parents', 3)</t>
+  </si>
+  <si>
+    <t>(u'police', 5)</t>
+  </si>
+  <si>
+    <t>(u'flag', 5)</t>
+  </si>
+  <si>
+    <t>(u'foundation', 5)</t>
+  </si>
+  <si>
+    <t>(u'child', 4)</t>
+  </si>
+  <si>
+    <t>(u'meme', 3)</t>
+  </si>
+  <si>
+    <t>(u'photograph', 4)</t>
+  </si>
+  <si>
+    <t>(u'car', 4)</t>
+  </si>
+  <si>
+    <t>(u'law', 4)</t>
+  </si>
+  <si>
+    <t>(u'image', 4)</t>
+  </si>
+  <si>
+    <t>(u'woman', 5)</t>
+  </si>
+  <si>
+    <t>(u'mon', 4)</t>
+  </si>
+  <si>
+    <t>(u'year', 5)</t>
+  </si>
+  <si>
+    <t>(u'state', 4)</t>
+  </si>
+  <si>
+    <t>(u'trump', 14)</t>
+  </si>
+  <si>
+    <t>(u'trump', 35)</t>
+  </si>
+  <si>
+    <t>(u'trump', 10)</t>
+  </si>
+  <si>
+    <t>(u'hurricane', 20)</t>
+  </si>
+  <si>
+    <t>(u'las', 6)</t>
+  </si>
+  <si>
+    <t>(u'president', 20)</t>
+  </si>
+  <si>
+    <t>(u'president', 33)</t>
+  </si>
+  <si>
+    <t>(u'president', 9)</t>
+  </si>
+  <si>
+    <t>(u'house', 8)</t>
+  </si>
+  <si>
+    <t>(u'president', 21)</t>
+  </si>
+  <si>
+    <t>(u'man', 9)</t>
+  </si>
+  <si>
+    <t>(u'hurricane', 8)</t>
+  </si>
+  <si>
+    <t>(u'irma', 15)</t>
+  </si>
+  <si>
+    <t>(u'anthem', 6)</t>
+  </si>
+  <si>
+    <t>(u'women', 11)</t>
+  </si>
+  <si>
+    <t>(u'sign', 7)</t>
+  </si>
+  <si>
+    <t>(u'airlines', 7)</t>
+  </si>
+  <si>
+    <t>(u'harvey', 13)</t>
+  </si>
+  <si>
+    <t>(u'mandalay', 5)</t>
+  </si>
+  <si>
+    <t>(u'tax', 7)</t>
+  </si>
+  <si>
+    <t>(u'sign', 4)</t>
+  </si>
+  <si>
+    <t>(u'inauguration', 11)</t>
+  </si>
+  <si>
+    <t>(u'children', 7)</t>
+  </si>
+  <si>
+    <t>(u'crime', 5)</t>
+  </si>
+  <si>
+    <t>(u'attack', 5)</t>
+  </si>
+  <si>
+    <t>(u'harvey', 6)</t>
+  </si>
+  <si>
+    <t>(u'trump', 11)</t>
+  </si>
+  <si>
+    <t>(u'bay', 5)</t>
+  </si>
+  <si>
+    <t>(u'shooter', 4)</t>
+  </si>
+  <si>
+    <t>(u'moore', 4)</t>
+  </si>
+  <si>
+    <t>(u'election', 6)</t>
+  </si>
+  <si>
+    <t>(u'easter', 5)</t>
+  </si>
+  <si>
+    <t>(u'house', 5)</t>
+  </si>
+  <si>
+    <t>(u'police', 4)</t>
+  </si>
+  <si>
+    <t>(u'texas', 6)</t>
+  </si>
+  <si>
+    <t>(u'victims', 7)</t>
+  </si>
+  <si>
+    <t>(u'church', 4)</t>
+  </si>
+  <si>
+    <t>(u'year', 6)</t>
+  </si>
+  <si>
+    <t>(u'feds', 3)</t>
+  </si>
+  <si>
+    <t>(u'charlottesville', 5)</t>
+  </si>
+  <si>
+    <t>(u'anthem', 7)</t>
+  </si>
+  <si>
+    <t>(u'trump', 5)</t>
+  </si>
+  <si>
+    <t>(u'woman', 4)</t>
+  </si>
+  <si>
+    <t>(u'tax', 4)</t>
+  </si>
+  <si>
+    <t>(u'part', 3)</t>
+  </si>
+  <si>
+    <t>(u'women', 5)</t>
+  </si>
+  <si>
+    <t>(u'houston', 5)</t>
+  </si>
+  <si>
+    <t>(u'cross', 6)</t>
+  </si>
+  <si>
+    <t>(u'states', 5)</t>
+  </si>
+  <si>
+    <t>(u'plan', 3)</t>
+  </si>
+  <si>
+    <t>(u'jones', 3)</t>
+  </si>
+  <si>
+    <t>(u'ban', 6)</t>
+  </si>
+  <si>
+    <t>(u'order', 5)</t>
+  </si>
+  <si>
+    <t>(u'murder', 3)</t>
+  </si>
+  <si>
+    <t>(u'clinton', 5)</t>
+  </si>
+  <si>
+    <t>(u'drug', 2)</t>
+  </si>
+  <si>
+    <t>(u'donald', 4)</t>
+  </si>
+  <si>
+    <t>(u'vegas', 5)</t>
+  </si>
+  <si>
+    <t>(u'food', 3)</t>
+  </si>
+  <si>
+    <t>(u'house', 6)</t>
+  </si>
+  <si>
+    <t>(u'health', 3)</t>
+  </si>
+  <si>
+    <t>(u'magazine', 3)</t>
+  </si>
+  <si>
+    <t>(u'war', 4)</t>
+  </si>
+  <si>
+    <t>(u'storm', 4)</t>
+  </si>
+  <si>
+    <t>(u'security', 4)</t>
+  </si>
+  <si>
+    <t>(u'states', 3)</t>
+  </si>
+  <si>
+    <t>(u'tweet', 5)</t>
+  </si>
+  <si>
+    <t>(u'entry', 4)</t>
+  </si>
+  <si>
+    <t>(u'women', 3)</t>
+  </si>
+  <si>
+    <t>(u'roll', 3)</t>
+  </si>
+  <si>
+    <t>(u'donald', 2)</t>
+  </si>
+  <si>
+    <t>(u'florida', 4)</t>
+  </si>
+  <si>
+    <t>(u'government', 4)</t>
+  </si>
+  <si>
+    <t>(u'marijuana', 3)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +1893,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +1901,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +2219,3255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>357</v>
+      </c>
+      <c r="K6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" t="s">
+        <v>350</v>
+      </c>
+      <c r="J8" t="s">
+        <v>359</v>
+      </c>
+      <c r="K8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I10" t="s">
+        <v>351</v>
+      </c>
+      <c r="J10" t="s">
+        <v>361</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" t="s">
+        <v>352</v>
+      </c>
+      <c r="J12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" t="s">
+        <v>353</v>
+      </c>
+      <c r="J13" t="s">
+        <v>364</v>
+      </c>
+      <c r="K13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" t="s">
+        <v>419</v>
+      </c>
+      <c r="I3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I5" t="s">
+        <v>426</v>
+      </c>
+      <c r="J5" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J6" t="s">
+        <v>429</v>
+      </c>
+      <c r="K6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" t="s">
+        <v>422</v>
+      </c>
+      <c r="I7" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" t="s">
+        <v>431</v>
+      </c>
+      <c r="K8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G9" t="s">
+        <v>415</v>
+      </c>
+      <c r="H9" t="s">
+        <v>408</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>432</v>
+      </c>
+      <c r="K9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H10" t="s">
+        <v>423</v>
+      </c>
+      <c r="I10" t="s">
+        <v>428</v>
+      </c>
+      <c r="J10" t="s">
+        <v>433</v>
+      </c>
+      <c r="K10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>434</v>
+      </c>
+      <c r="K11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" t="s">
+        <v>361</v>
+      </c>
+      <c r="G12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12" t="s">
+        <v>416</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>435</v>
+      </c>
+      <c r="K13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H3" t="s">
+        <v>507</v>
+      </c>
+      <c r="I3" t="s">
+        <v>498</v>
+      </c>
+      <c r="J3" t="s">
+        <v>524</v>
+      </c>
+      <c r="K3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J4" t="s">
+        <v>525</v>
+      </c>
+      <c r="K4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G5" t="s">
+        <v>501</v>
+      </c>
+      <c r="H5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I5" t="s">
+        <v>517</v>
+      </c>
+      <c r="J5" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" t="s">
+        <v>493</v>
+      </c>
+      <c r="G6" t="s">
+        <v>473</v>
+      </c>
+      <c r="H6" t="s">
+        <v>509</v>
+      </c>
+      <c r="I6" t="s">
+        <v>504</v>
+      </c>
+      <c r="J6" t="s">
+        <v>500</v>
+      </c>
+      <c r="K6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I7" t="s">
+        <v>518</v>
+      </c>
+      <c r="J7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F8" t="s">
+        <v>495</v>
+      </c>
+      <c r="G8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H8" t="s">
+        <v>511</v>
+      </c>
+      <c r="I8" t="s">
+        <v>519</v>
+      </c>
+      <c r="J8" t="s">
+        <v>527</v>
+      </c>
+      <c r="K8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H9" t="s">
+        <v>376</v>
+      </c>
+      <c r="I9" t="s">
+        <v>520</v>
+      </c>
+      <c r="J9" t="s">
+        <v>528</v>
+      </c>
+      <c r="K9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E10" t="s">
+        <v>486</v>
+      </c>
+      <c r="F10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" t="s">
+        <v>373</v>
+      </c>
+      <c r="I10" t="s">
+        <v>395</v>
+      </c>
+      <c r="J10" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I11" t="s">
+        <v>383</v>
+      </c>
+      <c r="J11" t="s">
+        <v>529</v>
+      </c>
+      <c r="K11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F12" t="s">
+        <v>495</v>
+      </c>
+      <c r="G12" t="s">
+        <v>504</v>
+      </c>
+      <c r="H12" t="s">
+        <v>513</v>
+      </c>
+      <c r="I12" t="s">
+        <v>521</v>
+      </c>
+      <c r="J12" t="s">
+        <v>376</v>
+      </c>
+      <c r="K12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F13" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H13" t="s">
+        <v>514</v>
+      </c>
+      <c r="I13" t="s">
+        <v>522</v>
+      </c>
+      <c r="J13" t="s">
+        <v>530</v>
+      </c>
+      <c r="K13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I2" t="s">
+        <v>591</v>
+      </c>
+      <c r="J2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F3" t="s">
+        <v>570</v>
+      </c>
+      <c r="G3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" t="s">
+        <v>572</v>
+      </c>
+      <c r="I3" t="s">
+        <v>592</v>
+      </c>
+      <c r="J3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" t="s">
+        <v>563</v>
+      </c>
+      <c r="F4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I4" t="s">
+        <v>593</v>
+      </c>
+      <c r="J4" t="s">
+        <v>600</v>
+      </c>
+      <c r="K4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" t="s">
+        <v>502</v>
+      </c>
+      <c r="H5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I5" t="s">
+        <v>506</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H6" t="s">
+        <v>504</v>
+      </c>
+      <c r="I6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J6" t="s">
+        <v>572</v>
+      </c>
+      <c r="K6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H7" t="s">
+        <v>498</v>
+      </c>
+      <c r="I7" t="s">
+        <v>582</v>
+      </c>
+      <c r="J7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F8" t="s">
+        <v>573</v>
+      </c>
+      <c r="G8" t="s">
+        <v>578</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>595</v>
+      </c>
+      <c r="J8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F9" t="s">
+        <v>574</v>
+      </c>
+      <c r="G9" t="s">
+        <v>579</v>
+      </c>
+      <c r="H9" t="s">
+        <v>586</v>
+      </c>
+      <c r="I9" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" t="s">
+        <v>602</v>
+      </c>
+      <c r="K9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F10" t="s">
+        <v>575</v>
+      </c>
+      <c r="G10" t="s">
+        <v>580</v>
+      </c>
+      <c r="H10" t="s">
+        <v>587</v>
+      </c>
+      <c r="I10" t="s">
+        <v>596</v>
+      </c>
+      <c r="J10" t="s">
+        <v>603</v>
+      </c>
+      <c r="K10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" t="s">
+        <v>553</v>
+      </c>
+      <c r="D11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" t="s">
+        <v>581</v>
+      </c>
+      <c r="H11" t="s">
+        <v>588</v>
+      </c>
+      <c r="I11" t="s">
+        <v>597</v>
+      </c>
+      <c r="J11" t="s">
+        <v>604</v>
+      </c>
+      <c r="K11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D12" t="s">
+        <v>559</v>
+      </c>
+      <c r="E12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F12" t="s">
+        <v>576</v>
+      </c>
+      <c r="G12" t="s">
+        <v>582</v>
+      </c>
+      <c r="H12" t="s">
+        <v>589</v>
+      </c>
+      <c r="I12" t="s">
+        <v>598</v>
+      </c>
+      <c r="J12" t="s">
+        <v>605</v>
+      </c>
+      <c r="K12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D13" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" t="s">
+        <v>569</v>
+      </c>
+      <c r="F13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G13" t="s">
+        <v>583</v>
+      </c>
+      <c r="H13" t="s">
+        <v>590</v>
+      </c>
+      <c r="I13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" t="s">
+        <v>605</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>